--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -1038,7 +1038,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>7.33</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>175.33</v>
+        <v>175.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -578,7 +578,7 @@
         <v>0.375</v>
       </c>
       <c r="D3" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -63,7 +63,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Virnes</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>40788</v>
@@ -598,10 +598,10 @@
         <v>40791</v>
       </c>
       <c r="C4" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D4" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,20 +643,20 @@
       <c r="B6" s="3">
         <v>40793</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.1388888888888889</v>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,19 +667,19 @@
         <v>40794</v>
       </c>
       <c r="C7" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D7" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,16 +693,16 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.125</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,16 +716,16 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,16 +739,16 @@
         <v>0.375</v>
       </c>
       <c r="D10" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,16 +785,16 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,16 +808,16 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,16 +831,16 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,16 +854,16 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,16 +900,16 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,16 +923,16 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,16 +946,16 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,16 +969,16 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,16 +1015,16 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,16 +1038,16 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.22916666666666666</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>7.5</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>175.5</v>
+        <v>175.67</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -713,19 +713,19 @@
         <v>40798</v>
       </c>
       <c r="C9" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D9" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>4.67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>175.67</v>
+        <v>175</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -736,7 +736,7 @@
         <v>40799</v>
       </c>
       <c r="C10" s="4">
-        <v>0.375</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D10" s="4">
         <v>0.25694444444444448</v>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5">
         <v>10</v>
@@ -759,19 +759,19 @@
         <v>40800</v>
       </c>
       <c r="C11" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D11" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,13 +808,13 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -877,16 +877,16 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -909,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -932,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,16 +992,16 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>175</v>
+        <v>175.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +211,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -598,16 +606,16 @@
         <v>40791</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D4" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5">
         <v>30</v>
@@ -643,17 +651,17 @@
       <c r="B6" s="3">
         <v>40793</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+      <c r="C6" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.27083333333333331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -693,13 +701,13 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -785,16 +793,16 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="6">
         <v>9</v>
       </c>
       <c r="G12" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,19 +813,19 @@
         <v>40802</v>
       </c>
       <c r="C13" s="4">
-        <v>0.375</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D13" s="4">
-        <v>0.13194444444444445</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,19 +836,19 @@
         <v>40805</v>
       </c>
       <c r="C14" s="4">
-        <v>0.375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D14" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,19 +859,19 @@
         <v>40806</v>
       </c>
       <c r="C15" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D15" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,17 +881,17 @@
       <c r="B16" s="3">
         <v>40807</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.25</v>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -897,19 +905,19 @@
         <v>40808</v>
       </c>
       <c r="C17" s="4">
-        <v>0.375</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D17" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,19 +928,19 @@
         <v>40809</v>
       </c>
       <c r="C18" s="4">
-        <v>0.375</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D18" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,22 +1064,22 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>175.5</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>166.25</v>
+      </c>
+      <c r="G25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -523,9 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -950,20 +948,20 @@
       <c r="B19" s="3">
         <v>40812</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.27083333333333331</v>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -973,20 +971,20 @@
       <c r="B20" s="3">
         <v>40813</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.27083333333333331</v>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,17 +994,17 @@
       <c r="B21" s="3">
         <v>40814</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.25</v>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1023,16 +1021,16 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,16 +1044,16 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,11 +1062,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,7 +1075,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>166.25</v>
+        <v>139.25</v>
       </c>
       <c r="G25" s="11"/>
     </row>

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1018,16 +1018,16 @@
         <v>40815</v>
       </c>
       <c r="C22" s="4">
-        <v>0.375</v>
+        <v>0.4458333333333333</v>
       </c>
       <c r="D22" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="G25" s="11"/>
     </row>

--- a/Horas/Setiembre.xlsx
+++ b/Horas/Setiembre.xlsx
@@ -1021,7 +1021,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="D22" s="4">
-        <v>0.32083333333333336</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G24" s="8">
         <f>ROUND(SUM(G2:G23)/60, 2)</f>
-        <v>5.25</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,8 +1074,8 @@
         <v>13</v>
       </c>
       <c r="F25" s="10">
-        <f>SUM(F24:G24)</f>
-        <v>138.25</v>
+        <f>ROUND(SUM(F24:G24),0)</f>
+        <v>139</v>
       </c>
       <c r="G25" s="11"/>
     </row>
